--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
   <si>
     <t>headers</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -152,32 +152,6 @@
     <t>login_4</t>
   </si>
   <si>
-    <t>登录名为空</t>
-    <rPh sb="0" eb="1">
-      <t>wgv</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qk</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>o</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pw</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录成功</t>
-    <rPh sb="0" eb="1">
-      <t>wgv</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dnal</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>请求参数类型</t>
     <rPh sb="0" eb="1">
       <t>ygfi</t>
@@ -240,64 +214,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>登录参数为空</t>
-    <rPh sb="0" eb="1">
-      <t>wgv</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cdo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>o</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>pw</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录名或密码为空</t>
-    <rPh sb="0" eb="1">
-      <t>wgv</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>qk</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ak</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>pndc</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>o</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>pw</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>身份认证信息未提供</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取个人信息正确</t>
-    <rPh sb="0" eb="1">
-      <t>aqb</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wh</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>w</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wyth</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ghd</t>
-    </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -320,28 +237,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>登录用户名或密码错误</t>
-    <rPh sb="0" eb="1">
-      <t>wgv</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>etyn</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>qk</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ak</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>pndc</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>qay</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -375,10 +270,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>运行级别</t>
     <rPh sb="0" eb="1">
       <t>fctf</t>
@@ -426,10 +317,6 @@
   </si>
   <si>
     <t>无法使用提供的认证信息登录</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id': 1, 'username': 'python'</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -557,10 +444,6 @@
     <t>{"Authorization": "JWT ${token}$"}</t>
   </si>
   <si>
-    <t>select id,username,mobile,email from tb_users where username='python'</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>sheet名称  feature 一级标签</t>
     <rPh sb="5" eb="6">
       <t>qkt</t>
@@ -632,7 +515,155 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>y</t>
+    <t>登录参数为空请求失败</t>
+    <rPh sb="0" eb="1">
+      <t>wgv</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cdo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>o</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pw</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录名为空请求失败</t>
+    <rPh sb="0" eb="1">
+      <t>wgv</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qk</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>o</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pw</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录名或密码为空请求失败</t>
+    <rPh sb="0" eb="1">
+      <t>wgv</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qk</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ak</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pndc</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>o</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pw</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功请求成功</t>
+    <rPh sb="0" eb="1">
+      <t>wgv</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dnal</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户名或密码错误请求失败</t>
+    <rPh sb="0" eb="1">
+      <t>wgv</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>etyn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qk</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ak</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pndc</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qay</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息请求失败</t>
+    <rPh sb="0" eb="1">
+      <t>wh</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wyth</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取个人信息正确请求成功</t>
+    <rPh sb="0" eb="1">
+      <t>aqb</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wh</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>w</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wyth</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ghd</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>username': 'python', 'user_id': 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,username,mobile,email 
+from tb_users where username='python'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>id': 1, 'username': 'python', 'mobile': '17701397029', 
+'email': '952673638@qq.com'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_4,Info_2,cart_1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1023,7 +1054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1249,6 +1280,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1399,7 +1441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1459,6 +1501,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="46" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2081,26 +2129,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.625" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="12.125" customWidth="1"/>
     <col min="8" max="8" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.25" customWidth="1"/>
     <col min="10" max="10" width="36.5" customWidth="1"/>
     <col min="11" max="11" width="9.625" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="16" max="16" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -2120,7 +2170,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>9</v>
@@ -2141,16 +2191,19 @@
         <v>0</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
@@ -2158,26 +2211,26 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="11"/>
       <c r="L2" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -2185,8 +2238,9 @@
         <v>400</v>
       </c>
       <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
@@ -2194,28 +2248,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="11"/>
       <c r="L3" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -2223,8 +2277,9 @@
         <v>400</v>
       </c>
       <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
@@ -2232,28 +2287,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="11"/>
       <c r="L4" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -2261,8 +2316,9 @@
         <v>400</v>
       </c>
       <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" ht="28.5">
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" ht="28.5">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -2270,28 +2326,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="11"/>
       <c r="L5" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2299,37 +2355,38 @@
         <v>200</v>
       </c>
       <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" ht="28.5">
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" ht="28.5">
       <c r="A6" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="11"/>
       <c r="L6" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -2337,108 +2394,111 @@
         <v>400</v>
       </c>
       <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="11"/>
       <c r="L7" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4">
         <v>401</v>
       </c>
       <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" ht="42.75">
       <c r="A8" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="16" t="s">
-        <v>45</v>
+      <c r="I8" s="21" t="s">
+        <v>89</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="11"/>
       <c r="L8" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="4">
         <v>200</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="71.25">
+      <c r="P8" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" ht="71.25">
       <c r="A9" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="11"/>
       <c r="L9" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2446,92 +2506,95 @@
         <v>200</v>
       </c>
       <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" ht="28.5">
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" ht="28.5">
       <c r="A10" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>71</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="11"/>
       <c r="L10" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4">
         <v>201</v>
       </c>
       <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="11"/>
       <c r="L11" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4">
         <v>201</v>
       </c>
       <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2548,8 +2611,9 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2566,13 +2630,14 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2586,13 +2651,14 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2606,13 +2672,14 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2626,13 +2693,14 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="12" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -2646,8 +2714,9 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2661,7 +2730,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2675,7 +2744,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2722,7 +2791,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -2731,32 +2800,32 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="18" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="18" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5">
